--- a/biology/Médecine/Station_sanitaire_de_Marseille/Station_sanitaire_de_Marseille.xlsx
+++ b/biology/Médecine/Station_sanitaire_de_Marseille/Station_sanitaire_de_Marseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La station sanitaire est un bâtiment situé à Marseille, construit entre 1946 et 1947 pour la direction du contrôle sanitaire aux frontières, à proximité du port, en bas du Panier, face à la mer, entre la cathédrale de La Major et le fort Saint-Jean. Après une importante restructuration architecturale, il accueille depuis 2013 le musée Regards de Provence.
 La station a été conçue par les architectes de la reconstruction d’après guerre, Fernand Pouillon aidé de Champollion et René Egger. Elle était la propriété de l’État, gérée par la DDASS. Après une longue période où désaffecté, le bâtiment fut laissé à l'abandon, il est cédé à la Fondation Regards de Provence en vue de sa réhabilitation et transformation en musée.
-En 2000, le bâtiment est labellisé « patrimoine du XXe siècle »[1] par le ministère de la Culture et de la Communication.
+En 2000, le bâtiment est labellisé « patrimoine du XXe siècle » par le ministère de la Culture et de la Communication.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1947, la station sanitaire du port de Marseille servit de lieu d’accueil aux immigrés.
 Ce bâtiment a été édifié dans le but de pallier les manques de structure d’accueil préventive et de soins pour une population venant essentiellement de l’Orient et pour contrôler ainsi de façon plus sûre une éventuelle épidémie amenée par voie de mer et par la multiplication et l’extension des communications aériennes.
@@ -549,9 +563,11 @@
           <t>La Fondation Regards de Provence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 18 janvier 2011 est officiellement lancé le projet de réhabilitation de la station sanitaire pour accueillir la Fondation Regards de Provence, qui possède une collection de peintures[2]. La fondation ouvre ses portes à l'occasion de Marseille-Provence 2013, capitale européenne de la culture, en mars 2013.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 18 janvier 2011 est officiellement lancé le projet de réhabilitation de la station sanitaire pour accueillir la Fondation Regards de Provence, qui possède une collection de peintures. La fondation ouvre ses portes à l'occasion de Marseille-Provence 2013, capitale européenne de la culture, en mars 2013.
 L'ancienne station sanitaire est réhabilitée par l'architecte Guy Daher, associé à Thierry Durousseau, pour un coût de 6 millions d'euros, dont 4,2 millions supportés par la fondation.
 </t>
         </is>
